--- a/2. Analysis/ttc_2_ranges_bound_line_missmatch_rows.xlsx
+++ b/2. Analysis/ttc_2_ranges_bound_line_missmatch_rows.xlsx
@@ -499,7 +499,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B2" s="2">
         <v>42881</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B3" s="2">
         <v>42711</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B4" s="2">
         <v>43536</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B5" s="2">
         <v>43297</v>
